--- a/statistiques_operations_2024_2025.xlsx
+++ b/statistiques_operations_2024_2025.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\github\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B6EFB-5984-465F-9942-B3FFF510D01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>نوع العملية</t>
   </si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>الإنزلاق السنوي</t>
-  </si>
-  <si>
-    <t>إجمالي العمليات</t>
   </si>
   <si>
     <t>طلب تأسيس شركات</t>
@@ -214,8 +217,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,13 +281,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +333,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -356,6 +367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -390,9 +402,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,402 +578,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>3739</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>4288</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>376</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>4288</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>1068</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>1150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1099</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>4894</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3971</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>11204</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>11005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>1890</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>19229</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>9695</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>36369</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>11585</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>55598</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>3682</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>3159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D2">
-        <v>3739</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2">
-        <v>8027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>376</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <v>353</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E12">
+        <v>326</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>11916</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>15719</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>111659</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>112589</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>505</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>7022</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1271</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>1068</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1099</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>1150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>3971</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>4894</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>8865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>11005</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>11204</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7">
-        <v>22209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>19229</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>1890</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>21119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>36369</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>9695</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>55598</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>11585</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10">
-        <v>67183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>3159</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>3682</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11">
-        <v>6841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>326</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>278</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>15719</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>11916</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>27635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>112589</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14">
-        <v>111659</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>224248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="E16">
+        <v>7910</v>
+      </c>
+      <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>505</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>348</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>180483</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>273414</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
-      </c>
-      <c r="B16">
-        <v>7910</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>7022</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16">
-        <v>14932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>273414</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17">
-        <v>180483</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17">
-        <v>453897</v>
       </c>
     </row>
   </sheetData>

--- a/statistiques_operations_2024_2025.xlsx
+++ b/statistiques_operations_2024_2025.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\github\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B6EFB-5984-465F-9942-B3FFF510D01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A7CA6-5ACE-41B5-B60D-F72269AF7967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>نوع العملية</t>
   </si>
@@ -86,138 +99,15 @@
   </si>
   <si>
     <t>المجموع</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>-12,8%</t>
-  </si>
-  <si>
-    <t>-6,1%</t>
-  </si>
-  <si>
-    <t>-16,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>-90,2%</t>
-  </si>
-  <si>
-    <t>-73,3%</t>
-  </si>
-  <si>
-    <t>-79,2%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>-14,7%</t>
-  </si>
-  <si>
-    <t>-24,2%</t>
-  </si>
-  <si>
-    <t>-0,8%</t>
-  </si>
-  <si>
-    <t>-31,1%</t>
-  </si>
-  <si>
-    <t>-11,2%</t>
-  </si>
-  <si>
-    <t>-34,0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,11 +160,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,29 +475,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -614,17 +509,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2" s="3">
+        <v>-1.3059701492537313E-2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.6132812982425806E-2</v>
       </c>
       <c r="C2">
-        <v>3739</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
+        <v>4232</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0733906803796703E-2</v>
       </c>
       <c r="E2">
         <v>4288</v>
@@ -634,17 +529,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="A3" s="3">
+        <v>0.12234042553191489</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.6058712378505887E-3</v>
       </c>
       <c r="C3">
-        <v>353</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+        <v>422</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.8180851115269497E-3</v>
       </c>
       <c r="E3">
         <v>376</v>
@@ -654,17 +549,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="A4" s="3">
+        <v>-6.0582218725413063E-2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7.3730100900322336E-3</v>
       </c>
       <c r="C4">
-        <v>1068</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+        <v>1194</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.1457079168903009E-3</v>
       </c>
       <c r="E4">
         <v>1271</v>
@@ -674,17 +569,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="A5" s="3">
+        <v>0.1610555050045496</v>
+      </c>
+      <c r="B5" s="3">
+        <v>7.8793642168183669E-3</v>
       </c>
       <c r="C5">
-        <v>1150</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+        <v>1276</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.3140306850215898E-3</v>
       </c>
       <c r="E5">
         <v>1099</v>
@@ -694,17 +589,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
+      <c r="A6" s="3">
+        <v>0.38227146814404434</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3.3894851243037628E-2</v>
       </c>
       <c r="C6">
-        <v>4894</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+        <v>5489</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.9201106324131696E-2</v>
       </c>
       <c r="E6">
         <v>3971</v>
@@ -714,17 +609,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
+      <c r="A7" s="3">
+        <v>0.1461154020899591</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.788590977016463E-2</v>
       </c>
       <c r="C7">
-        <v>11204</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>12613</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.3212836841367239E-2</v>
       </c>
       <c r="E7">
         <v>11005</v>
@@ -734,17 +629,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
+      <c r="A8" s="3">
+        <v>-0.88460138332726612</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.37024366748589E-2</v>
       </c>
       <c r="C8">
-        <v>1890</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
+        <v>2219</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.2978613323275838E-2</v>
       </c>
       <c r="E8">
         <v>19229</v>
@@ -754,17 +649,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+      <c r="A9" s="3">
+        <v>-0.6936676840166075</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.8796235689320862E-2</v>
       </c>
       <c r="C9">
-        <v>9695</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
+        <v>11141</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.17585621654554159</v>
       </c>
       <c r="E9">
         <v>36369</v>
@@ -774,17 +669,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+      <c r="A10" s="3">
+        <v>-0.75970358645994462</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.2498672364179765E-2</v>
       </c>
       <c r="C10">
-        <v>11585</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>13360</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2688348298688174</v>
       </c>
       <c r="E10">
         <v>55598</v>
@@ -794,17 +689,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
+      <c r="A11" s="3">
+        <v>0.16555872111427666</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2.2736535302762716E-2</v>
       </c>
       <c r="C11">
         <v>3682</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
+      <c r="D11" s="3">
+        <v>1.5274816136472431E-2</v>
       </c>
       <c r="E11">
         <v>3159</v>
@@ -814,17 +709,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
+      <c r="A12" s="3">
+        <v>-0.14723926380368099</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.7166639908115251E-3</v>
       </c>
       <c r="C12">
         <v>278</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="D12" s="3">
+        <v>1.5763184743558128E-3</v>
       </c>
       <c r="E12">
         <v>326</v>
@@ -834,17 +729,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="A13" s="3">
+        <v>-0.24193650995610408</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.3581899692482494E-2</v>
       </c>
       <c r="C13">
         <v>11916</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
+      <c r="D13" s="3">
+        <v>7.6006595393862023E-2</v>
       </c>
       <c r="E13">
         <v>15719</v>
@@ -854,17 +749,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+      <c r="A14" s="3">
+        <v>-8.2601319844745041E-3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.6894999444245471</v>
       </c>
       <c r="C14">
         <v>111659</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
+      <c r="D14" s="3">
+        <v>0.54440527824922269</v>
       </c>
       <c r="E14">
         <v>112589</v>
@@ -874,17 +769,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
+      <c r="A15" s="3">
+        <v>-3.5643564356435641E-2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.0072495090834989E-3</v>
       </c>
       <c r="C15">
-        <v>348</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
+        <v>487</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.441843035428483E-3</v>
       </c>
       <c r="E15">
         <v>505</v>
@@ -894,17 +789,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
+      <c r="A16" s="3">
+        <v>4.6776232616940585E-3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.9073124945968306E-2</v>
       </c>
       <c r="C16">
-        <v>7022</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
+        <v>7947</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.8247482000473863E-2</v>
       </c>
       <c r="E16">
         <v>7910</v>
@@ -914,20 +809,20 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="A17" s="3">
+        <v>-0.21695654486463486</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.0000000000000002</v>
       </c>
       <c r="C17">
-        <v>180483</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
+        <v>161942</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.99999999999999978</v>
       </c>
       <c r="E17">
-        <v>273414</v>
+        <v>206811</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -935,5 +830,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>